--- a/data.xlsx
+++ b/data.xlsx
@@ -9,46 +9,45 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="8565" windowHeight="10245" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="15045" windowHeight="10245" tabRatio="500" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <x:sheet name="SETTING" sheetId="1" r:id="rId4"/>
+    <x:sheet name="REACTION" sheetId="2" r:id="rId5"/>
+    <x:sheet name="RANDOM_REACTION" sheetId="3" r:id="rId6"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <x:si>
-    <x:t>A</x:t>
+    <x:t>병신</x:t>
   </x:si>
   <x:si>
-    <x:t>B</x:t>
+    <x:t>MTIxNzgwMDA3NTUyNzQ1NDc0MA.G9_5S-.mBsIJLt9UfD6rXyDs0ArMMvG7QQJD3_3wljkOk</x:t>
   </x:si>
   <x:si>
-    <x:t>C</x:t>
+    <x:t>너가 더</x:t>
   </x:si>
   <x:si>
-    <x:t>가</x:t>
+    <x:t>TOKEN</x:t>
   </x:si>
   <x:si>
-    <x:t>D</x:t>
+    <x:t>CHAT</x:t>
   </x:si>
   <x:si>
-    <x:t>E</x:t>
+    <x:t>일반</x:t>
   </x:si>
   <x:si>
-    <x:t>나</x:t>
+    <x:t>뭘 봐 봇 처음보냐?</x:t>
   </x:si>
   <x:si>
-    <x:t>다</x:t>
+    <x:t>나보단 너가...</x:t>
   </x:si>
   <x:si>
-    <x:t>라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마</x:t>
+    <x:t>봇한테 욕하고 좋덴다 ㅋㅋㅋ</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -116,7 +115,10 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -133,6 +135,19 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
@@ -143,7 +158,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -226,7 +240,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -261,7 +274,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -306,7 +318,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -350,7 +361,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -435,7 +445,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -456,7 +465,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -487,7 +495,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -797,64 +804,97 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:E3"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F12" activeCellId="0" sqref="F12:F12"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B3" activeCellId="0" sqref="B3:B3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:cols>
-    <x:col min="1" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="20.13671875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="5" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5">
-      <x:c r="A1" s="1">
+      <x:c r="A1" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B1" s="1">
+      <x:c r="C1" s="2"/>
+      <x:c r="D1" s="2"/>
+      <x:c r="E1" s="2"/>
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="2"/>
+      <x:c r="D2" s="2"/>
+      <x:c r="E2" s="2"/>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="2"/>
+      <x:c r="B3" s="2"/>
+      <x:c r="C3" s="2"/>
+      <x:c r="D3" s="2"/>
+      <x:c r="E3" s="2"/>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet5"/>
+  <x:dimension ref="A1:D1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D2" activeCellId="0" sqref="D2:D2"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C1" s="1">
-        <x:v>3</x:v>
+      <x:c r="C1" t="s">
+        <x:v>7</x:v>
       </x:c>
-      <x:c r="D1" s="1">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E1" s="1">
-        <x:v>5</x:v>
+      <x:c r="D1" t="s">
+        <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:5">
-      <x:c r="A2" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E2" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5">
-      <x:c r="A3" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet2"/>
+  <x:dimension ref="A1:A1"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1">
+      <x:c r="A1" t="s">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D3" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
